--- a/Code/Results/Cases/Case_6_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_25/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.64564207034049</v>
+        <v>14.46464705726222</v>
       </c>
       <c r="C2">
-        <v>11.24570943154254</v>
+        <v>6.832812953536477</v>
       </c>
       <c r="D2">
-        <v>4.311282431454079</v>
+        <v>5.092326877184861</v>
       </c>
       <c r="E2">
-        <v>6.443816541097366</v>
+        <v>8.153014006108634</v>
       </c>
       <c r="F2">
-        <v>31.15903556707982</v>
+        <v>20.571521409617</v>
       </c>
       <c r="G2">
-        <v>2.087510235692009</v>
+        <v>2.100805414554997</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.9939619165103</v>
+        <v>11.35496775598348</v>
       </c>
       <c r="L2">
-        <v>7.32071808276339</v>
+        <v>6.790624315876199</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.98548181047873</v>
+        <v>12.84254212637161</v>
       </c>
       <c r="O2">
-        <v>24.47030788171492</v>
+        <v>16.86854808483789</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.19955765156268</v>
+        <v>13.56956352996238</v>
       </c>
       <c r="C3">
-        <v>10.57738206321792</v>
+        <v>6.825519245543898</v>
       </c>
       <c r="D3">
-        <v>4.401043503076822</v>
+        <v>4.969669167475834</v>
       </c>
       <c r="E3">
-        <v>6.434054992429564</v>
+        <v>8.019662984326537</v>
       </c>
       <c r="F3">
-        <v>29.96828491404577</v>
+        <v>20.22530710716618</v>
       </c>
       <c r="G3">
-        <v>2.096842828469813</v>
+        <v>2.105566715499156</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.7287299314992</v>
+        <v>10.67230588215801</v>
       </c>
       <c r="L3">
-        <v>7.077646171288957</v>
+        <v>6.58754948909109</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.23662055364483</v>
+        <v>13.04711079097013</v>
       </c>
       <c r="O3">
-        <v>23.74385143939253</v>
+        <v>16.81042499587691</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.27559878125984</v>
+        <v>12.99350990028284</v>
       </c>
       <c r="C4">
-        <v>10.14785571012495</v>
+        <v>6.821709114624337</v>
       </c>
       <c r="D4">
-        <v>4.456510971755984</v>
+        <v>4.892249132754756</v>
       </c>
       <c r="E4">
-        <v>6.431594733366818</v>
+        <v>7.941705519600736</v>
       </c>
       <c r="F4">
-        <v>29.2471183390687</v>
+        <v>20.02679177799976</v>
       </c>
       <c r="G4">
-        <v>2.102716610289014</v>
+        <v>2.10858530341238</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.91042760329553</v>
+        <v>10.2303606534239</v>
       </c>
       <c r="L4">
-        <v>6.929456037725274</v>
+        <v>6.463149136385031</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.39412057731412</v>
+        <v>13.17553926600763</v>
       </c>
       <c r="O4">
-        <v>23.31285852510806</v>
+        <v>16.78748278114662</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.89018391893505</v>
+        <v>12.75223912070939</v>
       </c>
       <c r="C5">
-        <v>9.968005090825189</v>
+        <v>6.820323800328605</v>
       </c>
       <c r="D5">
-        <v>4.47922928726032</v>
+        <v>4.860194043196812</v>
       </c>
       <c r="E5">
-        <v>6.431451668405912</v>
+        <v>7.910940739154556</v>
       </c>
       <c r="F5">
-        <v>28.9560163699801</v>
+        <v>19.94944052802082</v>
       </c>
       <c r="G5">
-        <v>2.105148206167683</v>
+        <v>2.109839805969878</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.56641304460952</v>
+        <v>10.04455910205943</v>
       </c>
       <c r="L5">
-        <v>6.869397421929369</v>
+        <v>6.412598218120552</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.45915572992025</v>
+        <v>13.22860631082428</v>
       </c>
       <c r="O5">
-        <v>23.14107831583981</v>
+        <v>16.78123986457713</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.82565535434859</v>
+        <v>12.71178682162585</v>
       </c>
       <c r="C6">
-        <v>9.937850724552016</v>
+        <v>6.820103858045429</v>
       </c>
       <c r="D6">
-        <v>4.483009304720545</v>
+        <v>4.854841511374836</v>
       </c>
       <c r="E6">
-        <v>6.431478989913431</v>
+        <v>7.905893342762116</v>
       </c>
       <c r="F6">
-        <v>28.90785554490877</v>
+        <v>19.93681058276354</v>
       </c>
       <c r="G6">
-        <v>2.105554317678852</v>
+        <v>2.110049602826868</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.50864887983771</v>
+        <v>10.0133632966449</v>
       </c>
       <c r="L6">
-        <v>6.859446654059457</v>
+        <v>6.404215059327482</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.47000693397853</v>
+        <v>13.2374628440748</v>
       </c>
       <c r="O6">
-        <v>23.11278900756914</v>
+        <v>16.78038789045485</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.27043667292673</v>
+        <v>12.99028225374252</v>
       </c>
       <c r="C7">
-        <v>10.14544965777824</v>
+        <v>6.821689755084476</v>
       </c>
       <c r="D7">
-        <v>4.45681686095845</v>
+        <v>4.891818841355889</v>
       </c>
       <c r="E7">
-        <v>6.431589361623266</v>
+        <v>7.941286530468164</v>
       </c>
       <c r="F7">
-        <v>29.24318079871899</v>
+        <v>20.02573423325086</v>
       </c>
       <c r="G7">
-        <v>2.10274924744605</v>
+        <v>2.108602122638671</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.90583098342946</v>
+        <v>10.22787792690187</v>
       </c>
       <c r="L7">
-        <v>6.928644640790968</v>
+        <v>6.462466713133211</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.39499418156908</v>
+        <v>13.17625195731587</v>
       </c>
       <c r="O7">
-        <v>23.31052614778296</v>
+        <v>16.78738614287588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.15459794401204</v>
+        <v>14.16158379838438</v>
       </c>
       <c r="C8">
-        <v>11.01924672694561</v>
+        <v>6.830158954555519</v>
       </c>
       <c r="D8">
-        <v>4.342174850280653</v>
+        <v>5.050485940661311</v>
       </c>
       <c r="E8">
-        <v>6.439699749219044</v>
+        <v>8.106232216384909</v>
       </c>
       <c r="F8">
-        <v>30.74655268489851</v>
+        <v>20.4492373674439</v>
       </c>
       <c r="G8">
-        <v>2.090699503370178</v>
+        <v>2.102427663665725</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.5662326691799</v>
+        <v>11.12432670182421</v>
       </c>
       <c r="L8">
-        <v>7.236724173112527</v>
+        <v>6.720585542760364</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.07140328550613</v>
+        <v>12.91250495025054</v>
       </c>
       <c r="O8">
-        <v>24.21674073019581</v>
+        <v>16.84580353762842</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.72216079858399</v>
+        <v>16.38453055993539</v>
       </c>
       <c r="C9">
-        <v>12.58134502066692</v>
+        <v>6.852105646018525</v>
       </c>
       <c r="D9">
-        <v>4.118884815839038</v>
+        <v>5.343934929218073</v>
       </c>
       <c r="E9">
-        <v>6.484981123425158</v>
+        <v>8.459916966689752</v>
       </c>
       <c r="F9">
-        <v>33.76360356251693</v>
+        <v>21.39037986087872</v>
       </c>
       <c r="G9">
-        <v>2.068115977286756</v>
+        <v>2.091051461312686</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.4995611014205</v>
+        <v>12.70096600073744</v>
       </c>
       <c r="L9">
-        <v>7.846795611016077</v>
+        <v>7.226148041852626</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.46200842230351</v>
+        <v>12.41665720449627</v>
       </c>
       <c r="O9">
-        <v>26.11072586669529</v>
+        <v>17.06572250002253</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.19784511992768</v>
+        <v>17.88440342502899</v>
       </c>
       <c r="C10">
-        <v>13.6388978883015</v>
+        <v>6.871544055859291</v>
       </c>
       <c r="D10">
-        <v>3.953775505667299</v>
+        <v>5.547569148042524</v>
       </c>
       <c r="E10">
-        <v>6.538079726937496</v>
+        <v>8.736922850252345</v>
       </c>
       <c r="F10">
-        <v>36.01246896251229</v>
+        <v>22.14753342040785</v>
       </c>
       <c r="G10">
-        <v>2.052019274944551</v>
+        <v>2.083105903134988</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.46707106697485</v>
+        <v>13.74887742123713</v>
       </c>
       <c r="L10">
-        <v>8.295985360338261</v>
+        <v>7.593695686203773</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.02828506721064</v>
+        <v>12.06384980735681</v>
       </c>
       <c r="O10">
-        <v>27.57139768795008</v>
+        <v>17.29703091300799</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.27763208884666</v>
+        <v>18.53121660568939</v>
       </c>
       <c r="C11">
-        <v>14.1012287757926</v>
+        <v>6.881121925106943</v>
       </c>
       <c r="D11">
-        <v>3.877930049429038</v>
+        <v>5.637397150183621</v>
       </c>
       <c r="E11">
-        <v>6.566983497802112</v>
+        <v>8.866380770492192</v>
       </c>
       <c r="F11">
-        <v>37.04167599479555</v>
+        <v>22.5057620049223</v>
       </c>
       <c r="G11">
-        <v>2.044768441609589</v>
+        <v>2.079572983789425</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.3236091841883</v>
+        <v>14.2017946379403</v>
       </c>
       <c r="L11">
-        <v>8.500193456113474</v>
+        <v>7.759427290194182</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.83376164620539</v>
+        <v>11.90548520696709</v>
       </c>
       <c r="O11">
-        <v>28.25099084908043</v>
+        <v>17.41848961712366</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.68006457202284</v>
+        <v>18.77110704715476</v>
       </c>
       <c r="C12">
-        <v>14.27368924966292</v>
+        <v>6.884855901215395</v>
       </c>
       <c r="D12">
-        <v>3.849055876501204</v>
+        <v>5.670993571401071</v>
       </c>
       <c r="E12">
-        <v>6.578650294522655</v>
+        <v>8.915874964451996</v>
       </c>
       <c r="F12">
-        <v>37.43231586879273</v>
+        <v>22.64335267435396</v>
       </c>
       <c r="G12">
-        <v>2.042029708943893</v>
+        <v>2.078246203540575</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.64262279612945</v>
+        <v>14.36990413909118</v>
       </c>
       <c r="L12">
-        <v>8.577488791204596</v>
+        <v>7.821929923478634</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.76048489253701</v>
+        <v>11.84579162842822</v>
       </c>
       <c r="O12">
-        <v>28.51056112222356</v>
+        <v>17.46690012628329</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.59367708361846</v>
+        <v>18.71966569888664</v>
       </c>
       <c r="C13">
-        <v>14.23666157643651</v>
+        <v>6.884046939095779</v>
       </c>
       <c r="D13">
-        <v>3.855282070446724</v>
+        <v>5.663776874357001</v>
       </c>
       <c r="E13">
-        <v>6.576104907552748</v>
+        <v>8.905194918657543</v>
       </c>
       <c r="F13">
-        <v>37.34814349210467</v>
+        <v>22.61363463025356</v>
       </c>
       <c r="G13">
-        <v>2.04261928926074</v>
+        <v>2.078531468596242</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.57415162574838</v>
+        <v>14.33384961792067</v>
       </c>
       <c r="L13">
-        <v>8.56084346683323</v>
+        <v>7.808480917505236</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.77624941011949</v>
+        <v>11.85863595503614</v>
       </c>
       <c r="O13">
-        <v>28.45455791173097</v>
+        <v>17.45636530958213</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.31086857209372</v>
+        <v>18.55105327183464</v>
       </c>
       <c r="C14">
-        <v>14.11546906332749</v>
+        <v>6.881426968109469</v>
       </c>
       <c r="D14">
-        <v>3.875557913841857</v>
+        <v>5.640169640707722</v>
       </c>
       <c r="E14">
-        <v>6.567928640839899</v>
+        <v>8.87044337763238</v>
       </c>
       <c r="F14">
-        <v>37.07379576844325</v>
+        <v>22.51704310915813</v>
       </c>
       <c r="G14">
-        <v>2.044543004364339</v>
+        <v>2.079463611098386</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.3499604328495</v>
+        <v>14.21569312668958</v>
       </c>
       <c r="L14">
-        <v>8.506553309107334</v>
+        <v>7.764574793690815</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.82772547392975</v>
+        <v>11.90056883732785</v>
       </c>
       <c r="O14">
-        <v>28.2723008665339</v>
+        <v>17.42242348863579</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.13680586502764</v>
+        <v>18.44711825421602</v>
       </c>
       <c r="C15">
-        <v>14.04089743678237</v>
+        <v>6.879836142463376</v>
       </c>
       <c r="D15">
-        <v>3.887956011318622</v>
+        <v>5.625654452995741</v>
       </c>
       <c r="E15">
-        <v>6.563015599125569</v>
+        <v>8.849217727780568</v>
       </c>
       <c r="F15">
-        <v>36.90586890414697</v>
+        <v>22.45812893856018</v>
       </c>
       <c r="G15">
-        <v>2.045722142770795</v>
+        <v>2.080035995076183</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.21194772677889</v>
+        <v>14.1428766988528</v>
       </c>
       <c r="L15">
-        <v>8.473294382259503</v>
+        <v>7.737646406822646</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.85930583761859</v>
+        <v>11.92628889924442</v>
       </c>
       <c r="O15">
-        <v>28.16095484414461</v>
+        <v>17.40195023783934</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.12636224001246</v>
+        <v>17.84142359542416</v>
       </c>
       <c r="C16">
-        <v>13.60831278485444</v>
+        <v>6.870933023629252</v>
       </c>
       <c r="D16">
-        <v>3.958713452241235</v>
+        <v>5.541640805388445</v>
       </c>
       <c r="E16">
-        <v>6.536289611435545</v>
+        <v>8.728529722370029</v>
       </c>
       <c r="F16">
-        <v>35.94533167570294</v>
+        <v>22.12439595494154</v>
       </c>
       <c r="G16">
-        <v>2.052494301619608</v>
+        <v>2.083338372635102</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.41033610154477</v>
+        <v>13.71880119070224</v>
       </c>
       <c r="L16">
-        <v>8.282635680073973</v>
+        <v>7.582831189366241</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.04105220874594</v>
+        <v>12.07423958561476</v>
       </c>
       <c r="O16">
-        <v>27.52729218275097</v>
+        <v>17.28942711462282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.4947438443341</v>
+        <v>17.46080202876327</v>
       </c>
       <c r="C17">
-        <v>13.33818630513881</v>
+        <v>6.865660450722509</v>
       </c>
       <c r="D17">
-        <v>4.001900324608436</v>
+        <v>5.489370517562004</v>
       </c>
       <c r="E17">
-        <v>6.521137201409527</v>
+        <v>8.655356687763378</v>
       </c>
       <c r="F17">
-        <v>35.35764293211733</v>
+        <v>21.92316179692088</v>
       </c>
       <c r="G17">
-        <v>2.05666491424337</v>
+        <v>2.085384699753827</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.90884871735023</v>
+        <v>13.45256540765658</v>
       </c>
       <c r="L17">
-        <v>8.165624646453386</v>
+        <v>7.487446964248588</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.15324786085204</v>
+        <v>12.16552675735817</v>
       </c>
       <c r="O17">
-        <v>27.14245575329845</v>
+        <v>17.2246158756288</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.1270703387238</v>
+        <v>17.23853473030405</v>
       </c>
       <c r="C18">
-        <v>13.18104544308928</v>
+        <v>6.862696922759428</v>
       </c>
       <c r="D18">
-        <v>4.02667409401111</v>
+        <v>5.459042740615307</v>
       </c>
       <c r="E18">
-        <v>6.512866489157227</v>
+        <v>8.613595316609866</v>
       </c>
       <c r="F18">
-        <v>35.02019710484481</v>
+        <v>21.80871858796723</v>
       </c>
       <c r="G18">
-        <v>2.059070701132333</v>
+        <v>2.086569411607248</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.61677063331672</v>
+        <v>13.29719353228523</v>
       </c>
       <c r="L18">
-        <v>8.098310851496967</v>
+        <v>7.432448651998993</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.21804210936902</v>
+        <v>12.21823507509124</v>
       </c>
       <c r="O18">
-        <v>26.922526506874</v>
+        <v>17.18886168421174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.00182349056835</v>
+        <v>17.1627027665501</v>
       </c>
       <c r="C19">
-        <v>13.12753377085021</v>
+        <v>6.861705356272363</v>
       </c>
       <c r="D19">
-        <v>4.035052051852833</v>
+        <v>5.448729570229355</v>
       </c>
       <c r="E19">
-        <v>6.510141379531893</v>
+        <v>8.599512351035505</v>
       </c>
       <c r="F19">
-        <v>34.90604372613593</v>
+        <v>21.77019501642529</v>
       </c>
       <c r="G19">
-        <v>2.059886549464415</v>
+        <v>2.086971880067133</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.51724786742634</v>
+        <v>13.24420203912019</v>
       </c>
       <c r="L19">
-        <v>8.07551813427019</v>
+        <v>7.413805321890949</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.24002589116026</v>
+        <v>12.23611685962922</v>
       </c>
       <c r="O19">
-        <v>26.84830509678908</v>
+        <v>17.17701502271701</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.56243289181863</v>
+        <v>17.50166549711622</v>
       </c>
       <c r="C20">
-        <v>13.36712449952314</v>
+        <v>6.866214562759622</v>
       </c>
       <c r="D20">
-        <v>3.997310182192641</v>
+        <v>5.494962149411827</v>
       </c>
       <c r="E20">
-        <v>6.52270391904623</v>
+        <v>8.663112540221206</v>
       </c>
       <c r="F20">
-        <v>35.42014381563243</v>
+        <v>21.94444917015659</v>
       </c>
       <c r="G20">
-        <v>2.056220247740777</v>
+        <v>2.085166070602152</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.96260783251174</v>
+        <v>13.4811383777838</v>
       </c>
       <c r="L20">
-        <v>8.178082076527424</v>
+        <v>7.49761518352091</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.14127741767175</v>
+        <v>12.15578835470644</v>
       </c>
       <c r="O20">
-        <v>27.18327522877778</v>
+        <v>17.23135685586051</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.39410973523593</v>
+        <v>18.60071522905726</v>
       </c>
       <c r="C21">
-        <v>14.15113645053959</v>
+        <v>6.882193600630633</v>
       </c>
       <c r="D21">
-        <v>3.869606968043889</v>
+        <v>5.647115161287798</v>
       </c>
       <c r="E21">
-        <v>6.570310305312743</v>
+        <v>8.880638145282196</v>
       </c>
       <c r="F21">
-        <v>37.15435340968165</v>
+        <v>22.54536216906335</v>
       </c>
       <c r="G21">
-        <v>2.043977800781478</v>
+        <v>2.079189523618935</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.41595405725545</v>
+        <v>14.25049065698626</v>
       </c>
       <c r="L21">
-        <v>8.522500619825166</v>
+        <v>7.777478372961542</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.81259534965953</v>
+        <v>11.88824490473366</v>
       </c>
       <c r="O21">
-        <v>28.32577324434852</v>
+        <v>17.43232680137494</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.55368727396903</v>
+        <v>19.28963854463176</v>
       </c>
       <c r="C22">
-        <v>14.64834621993521</v>
+        <v>6.893261495734613</v>
       </c>
       <c r="D22">
-        <v>3.785226745595473</v>
+        <v>5.744104591511777</v>
       </c>
       <c r="E22">
-        <v>6.605649438309859</v>
+        <v>9.025540378424461</v>
       </c>
       <c r="F22">
-        <v>38.29307479983701</v>
+        <v>22.94936512804459</v>
       </c>
       <c r="G22">
-        <v>2.036015646460496</v>
+        <v>2.075347628976708</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.33478627396048</v>
+        <v>14.73349926388978</v>
       </c>
       <c r="L22">
-        <v>8.747403047652103</v>
+        <v>7.958874512971255</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.60002386118842</v>
+        <v>11.71498098961488</v>
       </c>
       <c r="O22">
-        <v>29.08547472574179</v>
+        <v>17.57779402570999</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.93815406729208</v>
+        <v>18.92461430999229</v>
       </c>
       <c r="C23">
-        <v>14.38433403207411</v>
+        <v>6.887296716207378</v>
       </c>
       <c r="D23">
-        <v>3.830363252130454</v>
+        <v>5.692568647998971</v>
       </c>
       <c r="E23">
-        <v>6.586388206209856</v>
+        <v>8.947960640675312</v>
       </c>
       <c r="F23">
-        <v>37.68480761642139</v>
+        <v>22.73272479777446</v>
       </c>
       <c r="G23">
-        <v>2.040262821349669</v>
+        <v>2.077392484488592</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.84715613998027</v>
+        <v>14.47751308649225</v>
       </c>
       <c r="L23">
-        <v>8.62738786598119</v>
+        <v>7.862211535205065</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.7132757267766</v>
+        <v>11.80732019487193</v>
       </c>
       <c r="O23">
-        <v>28.67878944619681</v>
+        <v>17.49883724033152</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.53184485432968</v>
+        <v>17.48320185136273</v>
       </c>
       <c r="C24">
-        <v>13.35404728391228</v>
+        <v>6.865963837796382</v>
       </c>
       <c r="D24">
-        <v>3.999385553204982</v>
+        <v>5.492435033880253</v>
       </c>
       <c r="E24">
-        <v>6.521994236493987</v>
+        <v>8.659605161907267</v>
       </c>
       <c r="F24">
-        <v>35.39188584461981</v>
+        <v>21.934821254834</v>
       </c>
       <c r="G24">
-        <v>2.056421256160084</v>
+        <v>2.08526488709108</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.938315082355</v>
+        <v>13.46822773260387</v>
       </c>
       <c r="L24">
-        <v>8.172450203749056</v>
+        <v>7.493018628469768</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.14668834598677</v>
+        <v>12.16019037998768</v>
       </c>
       <c r="O24">
-        <v>27.16481664058866</v>
+        <v>17.22830457207726</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.76803914692186</v>
+        <v>15.80033990962272</v>
       </c>
       <c r="C25">
-        <v>12.17479881572316</v>
+        <v>6.845591140024858</v>
       </c>
       <c r="D25">
-        <v>4.179320429633446</v>
+        <v>5.266571828468146</v>
       </c>
       <c r="E25">
-        <v>6.469392528791169</v>
+        <v>8.361127056284827</v>
       </c>
       <c r="F25">
-        <v>32.9412430070512</v>
+        <v>21.12408440252942</v>
       </c>
       <c r="G25">
-        <v>2.074127313588134</v>
+        <v>2.094054040800821</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.73966344135647</v>
+        <v>12.29387589511987</v>
       </c>
       <c r="L25">
-        <v>7.681428889799941</v>
+        <v>7.089828915185254</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.6243152445284</v>
+        <v>12.54866341233165</v>
       </c>
       <c r="O25">
-        <v>25.5861293325454</v>
+        <v>16.99436430464068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.46464705726222</v>
+        <v>13.43060564782326</v>
       </c>
       <c r="C2">
-        <v>6.832812953536477</v>
+        <v>8.036686879451656</v>
       </c>
       <c r="D2">
-        <v>5.092326877184861</v>
+        <v>5.338676293910034</v>
       </c>
       <c r="E2">
-        <v>8.153014006108634</v>
+        <v>8.272496739907128</v>
       </c>
       <c r="F2">
-        <v>20.571521409617</v>
+        <v>17.06459585922513</v>
       </c>
       <c r="G2">
-        <v>2.100805414554997</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>20.84449649000199</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.605054872779639</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.71704273359788</v>
       </c>
       <c r="K2">
-        <v>11.35496775598348</v>
+        <v>14.3716621378111</v>
       </c>
       <c r="L2">
-        <v>6.790624315876199</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.1875077828902</v>
       </c>
       <c r="N2">
-        <v>12.84254212637161</v>
+        <v>6.775621961361292</v>
       </c>
       <c r="O2">
-        <v>16.86854808483789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.3621746887752</v>
+      </c>
+      <c r="Q2">
+        <v>13.98209727746102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.56956352996238</v>
+        <v>12.54254063165718</v>
       </c>
       <c r="C3">
-        <v>6.825519245543898</v>
+        <v>7.939745452937489</v>
       </c>
       <c r="D3">
-        <v>4.969669167475834</v>
+        <v>5.123950107407524</v>
       </c>
       <c r="E3">
-        <v>8.019662984326537</v>
+        <v>8.141701529353748</v>
       </c>
       <c r="F3">
-        <v>20.22530710716618</v>
+        <v>16.81437822039437</v>
       </c>
       <c r="G3">
-        <v>2.105566715499156</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.58809507986076</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.752596994569302</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.75779304760206</v>
       </c>
       <c r="K3">
-        <v>10.67230588215801</v>
+        <v>14.45063219724009</v>
       </c>
       <c r="L3">
-        <v>6.58754948909109</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.58824935139912</v>
       </c>
       <c r="N3">
-        <v>13.04711079097013</v>
+        <v>6.566981484602478</v>
       </c>
       <c r="O3">
-        <v>16.81042499587691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.49806720969734</v>
+      </c>
+      <c r="Q3">
+        <v>13.9818795625466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.99350990028284</v>
+        <v>11.96182618925256</v>
       </c>
       <c r="C4">
-        <v>6.821709114624337</v>
+        <v>7.87984759346813</v>
       </c>
       <c r="D4">
-        <v>4.892249132754756</v>
+        <v>4.987042806943448</v>
       </c>
       <c r="E4">
-        <v>7.941705519600736</v>
+        <v>8.063188183746592</v>
       </c>
       <c r="F4">
-        <v>20.02679177799976</v>
+        <v>16.66833601117078</v>
       </c>
       <c r="G4">
-        <v>2.10858530341238</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>20.44226908477311</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.847605569086411</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.785968187917133</v>
       </c>
       <c r="K4">
-        <v>10.2303606534239</v>
+        <v>14.50420243535823</v>
       </c>
       <c r="L4">
-        <v>6.463149136385031</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.20148618711976</v>
       </c>
       <c r="N4">
-        <v>13.17553926600763</v>
+        <v>6.438953211195445</v>
       </c>
       <c r="O4">
-        <v>16.78748278114662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.58373730096441</v>
+      </c>
+      <c r="Q4">
+        <v>13.98848823810255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.75223912070939</v>
+        <v>11.71144573269607</v>
       </c>
       <c r="C5">
-        <v>6.820323800328605</v>
+        <v>7.857733968112957</v>
       </c>
       <c r="D5">
-        <v>4.860194043196812</v>
+        <v>4.931137663842335</v>
       </c>
       <c r="E5">
-        <v>7.910940739154556</v>
+        <v>8.029502160186038</v>
       </c>
       <c r="F5">
-        <v>19.94944052802082</v>
+        <v>16.60578649962522</v>
       </c>
       <c r="G5">
-        <v>2.109839805969878</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>20.37703965452921</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.890387723443326</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.796909621143465</v>
       </c>
       <c r="K5">
-        <v>10.04455910205943</v>
+        <v>14.52344335943233</v>
       </c>
       <c r="L5">
-        <v>6.412598218120552</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.03926077507818</v>
       </c>
       <c r="N5">
-        <v>13.22860631082428</v>
+        <v>6.38754915471574</v>
       </c>
       <c r="O5">
-        <v>16.78123986457713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.61920943604046</v>
+      </c>
+      <c r="Q5">
+        <v>13.98941447980469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.71178682162585</v>
+        <v>11.66347913968646</v>
       </c>
       <c r="C6">
-        <v>6.820103858045429</v>
+        <v>7.857008756369697</v>
       </c>
       <c r="D6">
-        <v>4.854841511374836</v>
+        <v>4.923150730915438</v>
       </c>
       <c r="E6">
-        <v>7.905893342762116</v>
+        <v>8.021277046113829</v>
       </c>
       <c r="F6">
-        <v>19.93681058276354</v>
+        <v>16.58942842951166</v>
       </c>
       <c r="G6">
-        <v>2.110049602826868</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>20.35572864679215</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.901360055329078</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.79716361796533</v>
       </c>
       <c r="K6">
-        <v>10.0133632966449</v>
+        <v>14.52202472921878</v>
       </c>
       <c r="L6">
-        <v>6.404215059327482</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.01209080782111</v>
       </c>
       <c r="N6">
-        <v>13.2374628440748</v>
+        <v>6.379839879129282</v>
       </c>
       <c r="O6">
-        <v>16.78038789045485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.62513172074189</v>
+      </c>
+      <c r="Q6">
+        <v>13.9854873080503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.99028225374252</v>
+        <v>11.94289779921271</v>
       </c>
       <c r="C7">
-        <v>6.821689755084476</v>
+        <v>7.887629150857521</v>
       </c>
       <c r="D7">
-        <v>4.891818841355889</v>
+        <v>4.989993371346105</v>
       </c>
       <c r="E7">
-        <v>7.941286530468164</v>
+        <v>8.055496720137844</v>
       </c>
       <c r="F7">
-        <v>20.02573423325086</v>
+        <v>16.65093224406341</v>
       </c>
       <c r="G7">
-        <v>2.108602122638671</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>20.41239018527878</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.858245924563709</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.78172128703511</v>
       </c>
       <c r="K7">
-        <v>10.22787792690187</v>
+        <v>14.4916500819725</v>
       </c>
       <c r="L7">
-        <v>6.462466713133211</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.19944305552635</v>
       </c>
       <c r="N7">
-        <v>13.17625195731587</v>
+        <v>6.440467040821451</v>
       </c>
       <c r="O7">
-        <v>16.78738614287588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.58425619518902</v>
+      </c>
+      <c r="Q7">
+        <v>13.97709169818956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.16158379838438</v>
+        <v>13.11271605032654</v>
       </c>
       <c r="C8">
-        <v>6.830158954555519</v>
+        <v>8.014148650707195</v>
       </c>
       <c r="D8">
-        <v>5.050485940661311</v>
+        <v>5.270423632473233</v>
       </c>
       <c r="E8">
-        <v>8.106232216384909</v>
+        <v>8.217648000079762</v>
       </c>
       <c r="F8">
-        <v>20.4492373674439</v>
+        <v>16.95527474507827</v>
       </c>
       <c r="G8">
-        <v>2.102427663665725</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>20.71592933953866</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.667999336410852</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.724632075577739</v>
       </c>
       <c r="K8">
-        <v>11.12432670182421</v>
+        <v>14.380869914595</v>
       </c>
       <c r="L8">
-        <v>6.720585542760364</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.98499757731945</v>
       </c>
       <c r="N8">
-        <v>12.91250495025054</v>
+        <v>6.706514339160456</v>
       </c>
       <c r="O8">
-        <v>16.84580353762842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.40884145644441</v>
+      </c>
+      <c r="Q8">
+        <v>13.96557695031187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.38453055993539</v>
+        <v>15.15206232208108</v>
       </c>
       <c r="C9">
-        <v>6.852105646018525</v>
+        <v>8.24487052509593</v>
       </c>
       <c r="D9">
-        <v>5.343934929218073</v>
+        <v>5.772382475826547</v>
       </c>
       <c r="E9">
-        <v>8.459916966689752</v>
+        <v>8.561025331760282</v>
       </c>
       <c r="F9">
-        <v>21.39037986087872</v>
+        <v>17.63955930775277</v>
       </c>
       <c r="G9">
-        <v>2.091051461312686</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>21.45420567009889</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.638662773001003</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.646371975149563</v>
       </c>
       <c r="K9">
-        <v>12.70096600073744</v>
+        <v>14.22840571998648</v>
       </c>
       <c r="L9">
-        <v>7.226148041852626</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.37335962612389</v>
       </c>
       <c r="N9">
-        <v>12.41665720449627</v>
+        <v>7.221812091535846</v>
       </c>
       <c r="O9">
-        <v>17.06572250002253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.08188901081962</v>
+      </c>
+      <c r="Q9">
+        <v>14.01880590471464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.88440342502899</v>
+        <v>16.47632230145603</v>
       </c>
       <c r="C10">
-        <v>6.871544055859291</v>
+        <v>8.417320588360463</v>
       </c>
       <c r="D10">
-        <v>5.547569148042524</v>
+        <v>6.115738290237474</v>
       </c>
       <c r="E10">
-        <v>8.736922850252345</v>
+        <v>8.815707097424575</v>
       </c>
       <c r="F10">
-        <v>22.14753342040785</v>
+        <v>18.1677795799418</v>
       </c>
       <c r="G10">
-        <v>2.083105903134988</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>22.03886215918838</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.876967485697326</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.603668089898049</v>
       </c>
       <c r="K10">
-        <v>13.74887742123713</v>
+        <v>14.13775690599138</v>
       </c>
       <c r="L10">
-        <v>7.593695686203773</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.29838520597593</v>
       </c>
       <c r="N10">
-        <v>12.06384980735681</v>
+        <v>7.595673098381026</v>
       </c>
       <c r="O10">
-        <v>17.29703091300799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.85234186362558</v>
+      </c>
+      <c r="Q10">
+        <v>14.08891460136947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.53121660568939</v>
+        <v>17.02465927350191</v>
       </c>
       <c r="C11">
-        <v>6.881121925106943</v>
+        <v>8.509296153850295</v>
       </c>
       <c r="D11">
-        <v>5.637397150183621</v>
+        <v>6.270826348763602</v>
       </c>
       <c r="E11">
-        <v>8.866380770492192</v>
+        <v>8.921744730941777</v>
       </c>
       <c r="F11">
-        <v>22.5057620049223</v>
+        <v>18.39045453675528</v>
       </c>
       <c r="G11">
-        <v>2.079572983789425</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>22.27386793276047</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.988077292487309</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.581086009121877</v>
       </c>
       <c r="K11">
-        <v>14.2017946379403</v>
+        <v>14.08213059037759</v>
       </c>
       <c r="L11">
-        <v>7.759427290194182</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.69844310406544</v>
       </c>
       <c r="N11">
-        <v>11.90548520696709</v>
+        <v>7.76670661497724</v>
       </c>
       <c r="O11">
-        <v>17.41848961712366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.75126725730915</v>
+      </c>
+      <c r="Q11">
+        <v>14.11125186717344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.77110704715476</v>
+        <v>17.23729797345146</v>
       </c>
       <c r="C12">
-        <v>6.884855901215395</v>
+        <v>8.536841471548637</v>
       </c>
       <c r="D12">
-        <v>5.670993571401071</v>
+        <v>6.325909798166786</v>
       </c>
       <c r="E12">
-        <v>8.915874964451996</v>
+        <v>8.967747068056649</v>
       </c>
       <c r="F12">
-        <v>22.64335267435396</v>
+        <v>18.48879377809888</v>
       </c>
       <c r="G12">
-        <v>2.078246203540575</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>22.38772481970135</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.027056793250247</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.576909837656304</v>
       </c>
       <c r="K12">
-        <v>14.36990413909118</v>
+        <v>14.07316524374543</v>
       </c>
       <c r="L12">
-        <v>7.821929923478634</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.84681278482821</v>
       </c>
       <c r="N12">
-        <v>11.84579162842822</v>
+        <v>7.829530013555952</v>
       </c>
       <c r="O12">
-        <v>17.46690012628329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.71276803084517</v>
+      </c>
+      <c r="Q12">
+        <v>14.13063295451041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.71966569888664</v>
+        <v>17.19370203741203</v>
       </c>
       <c r="C13">
-        <v>6.884046939095779</v>
+        <v>8.529442026193172</v>
       </c>
       <c r="D13">
-        <v>5.663776874357001</v>
+        <v>6.313545360778853</v>
       </c>
       <c r="E13">
-        <v>8.905194918657543</v>
+        <v>8.958980592362675</v>
       </c>
       <c r="F13">
-        <v>22.61363463025356</v>
+        <v>18.47017764247638</v>
       </c>
       <c r="G13">
-        <v>2.078531468596242</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>22.3677298965223</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.018066884242234</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.57854289945422</v>
       </c>
       <c r="K13">
-        <v>14.33384961792067</v>
+        <v>14.07728692149285</v>
       </c>
       <c r="L13">
-        <v>7.808480917505236</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.81497397140552</v>
       </c>
       <c r="N13">
-        <v>11.85863595503614</v>
+        <v>7.815699832661037</v>
       </c>
       <c r="O13">
-        <v>17.45636530958213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.72092631778471</v>
+      </c>
+      <c r="Q13">
+        <v>14.12833491842902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.55105327183464</v>
+        <v>17.04310024058503</v>
       </c>
       <c r="C14">
-        <v>6.881426968109469</v>
+        <v>8.510938251862301</v>
       </c>
       <c r="D14">
-        <v>5.640169640707722</v>
+        <v>6.275144962915714</v>
       </c>
       <c r="E14">
-        <v>8.87044337763238</v>
+        <v>8.926015618486765</v>
       </c>
       <c r="F14">
-        <v>22.51704310915813</v>
+        <v>18.39963689707519</v>
       </c>
       <c r="G14">
-        <v>2.079463611098386</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>22.28516298557345</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.991022808649653</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.581053538273403</v>
       </c>
       <c r="K14">
-        <v>14.21569312668958</v>
+        <v>14.08232258946894</v>
       </c>
       <c r="L14">
-        <v>7.764574793690815</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.71070190746109</v>
       </c>
       <c r="N14">
-        <v>11.90056883732785</v>
+        <v>7.771747179167653</v>
       </c>
       <c r="O14">
-        <v>17.42242348863579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.74804395751576</v>
+      </c>
+      <c r="Q14">
+        <v>14.11364299684019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.44711825421602</v>
+        <v>16.94624095522652</v>
       </c>
       <c r="C15">
-        <v>6.879836142463376</v>
+        <v>8.50250340017859</v>
       </c>
       <c r="D15">
-        <v>5.625654452995741</v>
+        <v>6.252583494890295</v>
       </c>
       <c r="E15">
-        <v>8.849217727780568</v>
+        <v>8.90356524529173</v>
       </c>
       <c r="F15">
-        <v>22.45812893856018</v>
+        <v>18.35138156438617</v>
       </c>
       <c r="G15">
-        <v>2.080035995076183</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>22.22568240129439</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.975732837813139</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.581171134865247</v>
       </c>
       <c r="K15">
-        <v>14.1428766988528</v>
+        <v>14.08113589153127</v>
       </c>
       <c r="L15">
-        <v>7.737646406822646</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.64647711376941</v>
       </c>
       <c r="N15">
-        <v>11.92628889924442</v>
+        <v>7.745409070456806</v>
       </c>
       <c r="O15">
-        <v>17.40195023783934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.76492119018086</v>
+      </c>
+      <c r="Q15">
+        <v>14.10099391499097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.84142359542416</v>
+        <v>16.4057395871147</v>
       </c>
       <c r="C16">
-        <v>6.870933023629252</v>
+        <v>8.43564086451441</v>
       </c>
       <c r="D16">
-        <v>5.541640805388445</v>
+        <v>6.114691079996346</v>
       </c>
       <c r="E16">
-        <v>8.728529722370029</v>
+        <v>8.789491472704809</v>
       </c>
       <c r="F16">
-        <v>22.12439595494154</v>
+        <v>18.10940082922929</v>
       </c>
       <c r="G16">
-        <v>2.083338372635102</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>21.94608669649326</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.879611573446041</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.592588493779459</v>
       </c>
       <c r="K16">
-        <v>13.71880119070224</v>
+        <v>14.1044108674611</v>
       </c>
       <c r="L16">
-        <v>7.582831189366241</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.27215245689051</v>
       </c>
       <c r="N16">
-        <v>12.07423958561476</v>
+        <v>7.589846510806384</v>
       </c>
       <c r="O16">
-        <v>17.28942711462282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.86075540918749</v>
+      </c>
+      <c r="Q16">
+        <v>14.05535321240801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.46080202876327</v>
+        <v>16.0649578341276</v>
       </c>
       <c r="C17">
-        <v>6.865660450722509</v>
+        <v>8.394497462797386</v>
       </c>
       <c r="D17">
-        <v>5.489370517562004</v>
+        <v>6.028505257274067</v>
       </c>
       <c r="E17">
-        <v>8.655356687763378</v>
+        <v>8.719746566436438</v>
       </c>
       <c r="F17">
-        <v>21.92316179692088</v>
+        <v>17.96270675541258</v>
       </c>
       <c r="G17">
-        <v>2.085384699753827</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>21.77777748147427</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.820265223110472</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.60067458329093</v>
       </c>
       <c r="K17">
-        <v>13.45256540765658</v>
+        <v>14.12055507412362</v>
       </c>
       <c r="L17">
-        <v>7.487446964248588</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.03714463091847</v>
       </c>
       <c r="N17">
-        <v>12.16552675735817</v>
+        <v>7.493867318225831</v>
       </c>
       <c r="O17">
-        <v>17.2246158756288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.92007436921379</v>
+      </c>
+      <c r="Q17">
+        <v>14.0296841090057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.23853473030405</v>
+        <v>15.87618094148444</v>
       </c>
       <c r="C18">
-        <v>6.862696922759428</v>
+        <v>8.363328701018274</v>
       </c>
       <c r="D18">
-        <v>5.459042740615307</v>
+        <v>5.97550749875751</v>
       </c>
       <c r="E18">
-        <v>8.613595316609866</v>
+        <v>8.685644844763271</v>
       </c>
       <c r="F18">
-        <v>21.80871858796723</v>
+        <v>17.89248306130789</v>
       </c>
       <c r="G18">
-        <v>2.086569411607248</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>21.70596964603289</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.781904426877515</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.609543609952933</v>
       </c>
       <c r="K18">
-        <v>13.29719353228523</v>
+        <v>14.14173195922495</v>
       </c>
       <c r="L18">
-        <v>7.432448651998993</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.89990016233515</v>
       </c>
       <c r="N18">
-        <v>12.21823507509124</v>
+        <v>7.436807614056612</v>
       </c>
       <c r="O18">
-        <v>17.18886168421174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.95389365016564</v>
+      </c>
+      <c r="Q18">
+        <v>14.0255728907578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.1627027665501</v>
+        <v>15.80350176377093</v>
       </c>
       <c r="C19">
-        <v>6.861705356272363</v>
+        <v>8.3585096036078</v>
       </c>
       <c r="D19">
-        <v>5.448729570229355</v>
+        <v>5.959656218545818</v>
       </c>
       <c r="E19">
-        <v>8.599512351035505</v>
+        <v>8.669558178121081</v>
       </c>
       <c r="F19">
-        <v>21.77019501642529</v>
+        <v>17.85842957231398</v>
       </c>
       <c r="G19">
-        <v>2.086971880067133</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>21.66351838354308</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.771947829060103</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.609659822682385</v>
       </c>
       <c r="K19">
-        <v>13.24420203912019</v>
+        <v>14.14035926125361</v>
       </c>
       <c r="L19">
-        <v>7.413805321890949</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.8531750957191</v>
       </c>
       <c r="N19">
-        <v>12.23611685962922</v>
+        <v>7.418745479796396</v>
       </c>
       <c r="O19">
-        <v>17.17701502271701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.96576166631972</v>
+      </c>
+      <c r="Q19">
+        <v>14.01675879705773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.50166549711622</v>
+        <v>16.10240955466197</v>
       </c>
       <c r="C20">
-        <v>6.866214562759622</v>
+        <v>8.398296463554452</v>
       </c>
       <c r="D20">
-        <v>5.494962149411827</v>
+        <v>6.037518370743262</v>
       </c>
       <c r="E20">
-        <v>8.663112540221206</v>
+        <v>8.72762314993461</v>
       </c>
       <c r="F20">
-        <v>21.94444917015659</v>
+        <v>17.97930742399468</v>
       </c>
       <c r="G20">
-        <v>2.085166070602152</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>21.79743020201311</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.826273223270263</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.600073626084564</v>
       </c>
       <c r="K20">
-        <v>13.4811383777838</v>
+        <v>14.11964723120256</v>
       </c>
       <c r="L20">
-        <v>7.49761518352091</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.06235729849714</v>
       </c>
       <c r="N20">
-        <v>12.15578835470644</v>
+        <v>7.503973813855748</v>
       </c>
       <c r="O20">
-        <v>17.23135685586051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.91369903412143</v>
+      </c>
+      <c r="Q20">
+        <v>14.03309784657462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.60071522905726</v>
+        <v>17.07636810143066</v>
       </c>
       <c r="C21">
-        <v>6.882193600630633</v>
+        <v>8.524634854987736</v>
       </c>
       <c r="D21">
-        <v>5.647115161287798</v>
+        <v>6.289493941586352</v>
       </c>
       <c r="E21">
-        <v>8.880638145282196</v>
+        <v>8.929267259484753</v>
       </c>
       <c r="F21">
-        <v>22.54536216906335</v>
+        <v>18.40570999228156</v>
       </c>
       <c r="G21">
-        <v>2.079189523618935</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>22.28351934944956</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.002709460231252</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.576035045744332</v>
       </c>
       <c r="K21">
-        <v>14.25049065698626</v>
+        <v>14.06828490380482</v>
       </c>
       <c r="L21">
-        <v>7.777478372961542</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.74152128092958</v>
       </c>
       <c r="N21">
-        <v>11.88824490473366</v>
+        <v>7.786443568899625</v>
       </c>
       <c r="O21">
-        <v>17.43232680137494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.74073664141707</v>
+      </c>
+      <c r="Q21">
+        <v>14.10707514646924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.28963854463176</v>
+        <v>17.69705903613667</v>
       </c>
       <c r="C22">
-        <v>6.893261495734613</v>
+        <v>8.596323016049807</v>
       </c>
       <c r="D22">
-        <v>5.744104591511777</v>
+        <v>6.445033703070063</v>
       </c>
       <c r="E22">
-        <v>9.025540378424461</v>
+        <v>9.069840832062148</v>
       </c>
       <c r="F22">
-        <v>22.94936512804459</v>
+        <v>18.70844569422534</v>
       </c>
       <c r="G22">
-        <v>2.075347628976708</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>22.64435436174177</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.111888733959309</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.56937896940587</v>
       </c>
       <c r="K22">
-        <v>14.73349926388978</v>
+        <v>14.05692323339016</v>
       </c>
       <c r="L22">
-        <v>7.958874512971255</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.16762525873482</v>
       </c>
       <c r="N22">
-        <v>11.71498098961488</v>
+        <v>7.966809889048937</v>
       </c>
       <c r="O22">
-        <v>17.57779402570999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.62855320543548</v>
+      </c>
+      <c r="Q22">
+        <v>14.17699035080985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.92461430999229</v>
+        <v>17.38176639637006</v>
       </c>
       <c r="C23">
-        <v>6.887296716207378</v>
+        <v>8.548180036464604</v>
       </c>
       <c r="D23">
-        <v>5.692568647998971</v>
+        <v>6.358860505736849</v>
       </c>
       <c r="E23">
-        <v>8.947960640675312</v>
+        <v>9.002483879206595</v>
       </c>
       <c r="F23">
-        <v>22.73272479777446</v>
+        <v>18.56392735597333</v>
       </c>
       <c r="G23">
-        <v>2.077392484488592</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>22.48185499609192</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.049688938467008</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.577729077745621</v>
       </c>
       <c r="K23">
-        <v>14.47751308649225</v>
+        <v>14.07750527189915</v>
       </c>
       <c r="L23">
-        <v>7.862211535205065</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.94169157645232</v>
       </c>
       <c r="N23">
-        <v>11.80732019487193</v>
+        <v>7.868617814855098</v>
       </c>
       <c r="O23">
-        <v>17.49883724033152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.68745416820914</v>
+      </c>
+      <c r="Q23">
+        <v>14.15200319339652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.48320185136273</v>
+        <v>16.1077159654598</v>
       </c>
       <c r="C24">
-        <v>6.865963837796382</v>
+        <v>8.380891746360716</v>
       </c>
       <c r="D24">
-        <v>5.492435033880253</v>
+        <v>6.027467933932541</v>
       </c>
       <c r="E24">
-        <v>8.659605161907267</v>
+        <v>8.736524295020818</v>
       </c>
       <c r="F24">
-        <v>21.934821254834</v>
+        <v>18.00020339558801</v>
       </c>
       <c r="G24">
-        <v>2.08526488709108</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>21.83869325238681</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.816039312104983</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.608445772335433</v>
       </c>
       <c r="K24">
-        <v>13.46822773260387</v>
+        <v>14.14382395686123</v>
       </c>
       <c r="L24">
-        <v>7.493018628469768</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.05074541842602</v>
       </c>
       <c r="N24">
-        <v>12.16019037998768</v>
+        <v>7.495898416885094</v>
       </c>
       <c r="O24">
-        <v>17.22830457207726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.91550414370794</v>
+      </c>
+      <c r="Q24">
+        <v>14.05228805239567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.80033990962272</v>
+        <v>14.60661171964214</v>
       </c>
       <c r="C25">
-        <v>6.845591140024858</v>
+        <v>8.197741298512289</v>
       </c>
       <c r="D25">
-        <v>5.266571828468146</v>
+        <v>5.647333235994998</v>
       </c>
       <c r="E25">
-        <v>8.361127056284827</v>
+        <v>8.454508722828049</v>
       </c>
       <c r="F25">
-        <v>21.12408440252942</v>
+        <v>17.41995253800889</v>
       </c>
       <c r="G25">
-        <v>2.094054040800821</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>21.19445968097237</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.555312108607456</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.656760767531365</v>
       </c>
       <c r="K25">
-        <v>12.29387589511987</v>
+        <v>14.24181859107868</v>
       </c>
       <c r="L25">
-        <v>7.089828915185254</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.01455512235456</v>
       </c>
       <c r="N25">
-        <v>12.54866341233165</v>
+        <v>7.086737491951212</v>
       </c>
       <c r="O25">
-        <v>16.99436430464068</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.16923846254167</v>
+      </c>
+      <c r="Q25">
+        <v>13.97783320807232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.43060564782326</v>
+        <v>13.23860944779567</v>
       </c>
       <c r="C2">
-        <v>8.036686879451656</v>
+        <v>7.826817099929515</v>
       </c>
       <c r="D2">
-        <v>5.338676293910034</v>
+        <v>5.379372111275794</v>
       </c>
       <c r="E2">
-        <v>8.272496739907128</v>
+        <v>8.053803936699468</v>
       </c>
       <c r="F2">
-        <v>17.06459585922513</v>
+        <v>16.70243259273439</v>
       </c>
       <c r="G2">
-        <v>20.84449649000199</v>
+        <v>19.56591400747165</v>
       </c>
       <c r="I2">
-        <v>2.605054872779639</v>
+        <v>2.531050515425799</v>
       </c>
       <c r="J2">
-        <v>8.71704273359788</v>
+        <v>9.035340399922017</v>
       </c>
       <c r="K2">
-        <v>14.3716621378111</v>
+        <v>13.95364945009531</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.94755022259408</v>
       </c>
       <c r="M2">
-        <v>11.1875077828902</v>
+        <v>8.70004593297902</v>
       </c>
       <c r="N2">
-        <v>6.775621961361292</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.19708612330382</v>
       </c>
       <c r="P2">
-        <v>12.3621746887752</v>
+        <v>6.829766845504189</v>
       </c>
       <c r="Q2">
-        <v>13.98209727746102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.29471334201014</v>
+      </c>
+      <c r="S2">
+        <v>13.69594214440871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.54254063165718</v>
+        <v>12.39624351248723</v>
       </c>
       <c r="C3">
-        <v>7.939745452937489</v>
+        <v>7.667499453970104</v>
       </c>
       <c r="D3">
-        <v>5.123950107407524</v>
+        <v>5.148223562661643</v>
       </c>
       <c r="E3">
-        <v>8.141701529353748</v>
+        <v>7.936216030287328</v>
       </c>
       <c r="F3">
-        <v>16.81437822039437</v>
+        <v>16.48443624170855</v>
       </c>
       <c r="G3">
-        <v>20.58809507986076</v>
+        <v>19.38480885310489</v>
       </c>
       <c r="I3">
-        <v>2.752596994569302</v>
+        <v>2.662540749812641</v>
       </c>
       <c r="J3">
-        <v>8.75779304760206</v>
+        <v>9.051398255015602</v>
       </c>
       <c r="K3">
-        <v>14.45063219724009</v>
+        <v>14.04929204027949</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.09713579423056</v>
       </c>
       <c r="M3">
-        <v>10.58824935139912</v>
+        <v>8.714844320427572</v>
       </c>
       <c r="N3">
-        <v>6.566981484602478</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.60151829391854</v>
       </c>
       <c r="P3">
-        <v>12.49806720969734</v>
+        <v>6.616370823822988</v>
       </c>
       <c r="Q3">
-        <v>13.9818795625466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.41681863403889</v>
+      </c>
+      <c r="S3">
+        <v>13.71421149542003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.96182618925256</v>
+        <v>11.84531661015326</v>
       </c>
       <c r="C4">
-        <v>7.87984759346813</v>
+        <v>7.569227460058965</v>
       </c>
       <c r="D4">
-        <v>4.987042806943448</v>
+        <v>5.000752653311956</v>
       </c>
       <c r="E4">
-        <v>8.063188183746592</v>
+        <v>7.865371370101721</v>
       </c>
       <c r="F4">
-        <v>16.66833601117078</v>
+        <v>16.35699800347538</v>
       </c>
       <c r="G4">
-        <v>20.44226908477311</v>
+        <v>19.28663538352145</v>
       </c>
       <c r="I4">
-        <v>2.847605569086411</v>
+        <v>2.747575797980925</v>
       </c>
       <c r="J4">
-        <v>8.785968187917133</v>
+        <v>9.062696909570445</v>
       </c>
       <c r="K4">
-        <v>14.50420243535823</v>
+        <v>14.11178778493782</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.19129082614828</v>
       </c>
       <c r="M4">
-        <v>10.20148618711976</v>
+        <v>8.744274479982407</v>
       </c>
       <c r="N4">
-        <v>6.438953211195445</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.217202671451</v>
       </c>
       <c r="P4">
-        <v>12.58373730096441</v>
+        <v>6.485373506560819</v>
       </c>
       <c r="Q4">
-        <v>13.98848823810255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.49418019255494</v>
+      </c>
+      <c r="S4">
+        <v>13.73101693025997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.71144573269607</v>
+        <v>11.60751086110547</v>
       </c>
       <c r="C5">
-        <v>7.857733968112957</v>
+        <v>7.53212331189507</v>
       </c>
       <c r="D5">
-        <v>4.931137663842335</v>
+        <v>4.940455718394723</v>
       </c>
       <c r="E5">
-        <v>8.029502160186038</v>
+        <v>7.834670610187267</v>
       </c>
       <c r="F5">
-        <v>16.60578649962522</v>
+        <v>16.30167748610927</v>
       </c>
       <c r="G5">
-        <v>20.37703965452921</v>
+        <v>19.24094403730148</v>
       </c>
       <c r="I5">
-        <v>2.890387723443326</v>
+        <v>2.786777321359247</v>
       </c>
       <c r="J5">
-        <v>8.796909621143465</v>
+        <v>9.066315064566336</v>
       </c>
       <c r="K5">
-        <v>14.52344335943233</v>
+        <v>14.1343924670282</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.22658432134009</v>
       </c>
       <c r="M5">
-        <v>10.03926077507818</v>
+        <v>8.759322908660698</v>
       </c>
       <c r="N5">
-        <v>6.38754915471574</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.05603220928086</v>
       </c>
       <c r="P5">
-        <v>12.61920943604046</v>
+        <v>6.432757914641847</v>
       </c>
       <c r="Q5">
-        <v>13.98941447980469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.5263556238619</v>
+      </c>
+      <c r="S5">
+        <v>13.73580728561086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.66347913968646</v>
+        <v>11.56164939069414</v>
       </c>
       <c r="C6">
-        <v>7.857008756369697</v>
+        <v>7.52970412734396</v>
       </c>
       <c r="D6">
-        <v>4.923150730915438</v>
+        <v>4.931766481995171</v>
       </c>
       <c r="E6">
-        <v>8.021277046113829</v>
+        <v>7.826907004207562</v>
       </c>
       <c r="F6">
-        <v>16.58942842951166</v>
+        <v>16.28645299464126</v>
       </c>
       <c r="G6">
-        <v>20.35572864679215</v>
+        <v>19.22267864597713</v>
       </c>
       <c r="I6">
-        <v>2.901360055329078</v>
+        <v>2.79783229054101</v>
       </c>
       <c r="J6">
-        <v>8.79716361796533</v>
+        <v>9.065295061796606</v>
       </c>
       <c r="K6">
-        <v>14.52202472921878</v>
+        <v>14.13357276282337</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.22801384606452</v>
       </c>
       <c r="M6">
-        <v>10.01209080782111</v>
+        <v>8.759667842218818</v>
       </c>
       <c r="N6">
-        <v>6.379839879129282</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.02904896765449</v>
       </c>
       <c r="P6">
-        <v>12.62513172074189</v>
+        <v>6.424853867048419</v>
       </c>
       <c r="Q6">
-        <v>13.9854873080503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.53179902153712</v>
+      </c>
+      <c r="S6">
+        <v>13.73249990990502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.94289779921271</v>
+        <v>11.82375221569086</v>
       </c>
       <c r="C7">
-        <v>7.887629150857521</v>
+        <v>7.57635775428774</v>
       </c>
       <c r="D7">
-        <v>4.989993371346105</v>
+        <v>5.006225796938092</v>
       </c>
       <c r="E7">
-        <v>8.055496720137844</v>
+        <v>7.858983834293505</v>
       </c>
       <c r="F7">
-        <v>16.65093224406341</v>
+        <v>16.32902985000549</v>
       </c>
       <c r="G7">
-        <v>20.41239018527878</v>
+        <v>19.33625672810711</v>
       </c>
       <c r="I7">
-        <v>2.858245924563709</v>
+        <v>2.760417108375414</v>
       </c>
       <c r="J7">
-        <v>8.78172128703511</v>
+        <v>9.027203055170009</v>
       </c>
       <c r="K7">
-        <v>14.4916500819725</v>
+        <v>14.09503283887859</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.17568669202482</v>
       </c>
       <c r="M7">
-        <v>10.19944305552635</v>
+        <v>8.734872930897327</v>
       </c>
       <c r="N7">
-        <v>6.440467040821451</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.21166752099217</v>
       </c>
       <c r="P7">
-        <v>12.58425619518902</v>
+        <v>6.486485272301834</v>
       </c>
       <c r="Q7">
-        <v>13.97709169818956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.49501862262042</v>
+      </c>
+      <c r="S7">
+        <v>13.71253884517428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.11271605032654</v>
+        <v>12.92757544830041</v>
       </c>
       <c r="C8">
-        <v>8.014148650707195</v>
+        <v>7.77711451164615</v>
       </c>
       <c r="D8">
-        <v>5.270423632473233</v>
+        <v>5.313612125175385</v>
       </c>
       <c r="E8">
-        <v>8.217648000079762</v>
+        <v>8.007915632992384</v>
       </c>
       <c r="F8">
-        <v>16.95527474507827</v>
+        <v>16.56992725144083</v>
       </c>
       <c r="G8">
-        <v>20.71592933953866</v>
+        <v>19.72565920496726</v>
       </c>
       <c r="I8">
-        <v>2.667999336410852</v>
+        <v>2.592206142210285</v>
       </c>
       <c r="J8">
-        <v>8.724632075577739</v>
+        <v>8.933380665537383</v>
       </c>
       <c r="K8">
-        <v>14.380869914595</v>
+        <v>13.954634162235</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.97166926344281</v>
       </c>
       <c r="M8">
-        <v>10.98499757731945</v>
+        <v>8.680157461776192</v>
       </c>
       <c r="N8">
-        <v>6.706514339160456</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.9848532164707</v>
       </c>
       <c r="P8">
-        <v>12.40884145644441</v>
+        <v>6.757734284916612</v>
       </c>
       <c r="Q8">
-        <v>13.96557695031187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.33775997853549</v>
+      </c>
+      <c r="S8">
+        <v>13.66249755568043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.15206232208108</v>
+        <v>14.86107408499695</v>
       </c>
       <c r="C9">
-        <v>8.24487052509593</v>
+        <v>8.157473046792404</v>
       </c>
       <c r="D9">
-        <v>5.772382475826547</v>
+        <v>5.85504196075584</v>
       </c>
       <c r="E9">
-        <v>8.561025331760282</v>
+        <v>8.317325374095629</v>
       </c>
       <c r="F9">
-        <v>17.63955930775277</v>
+        <v>17.1602037640588</v>
       </c>
       <c r="G9">
-        <v>21.45420567009889</v>
+        <v>20.3503366417059</v>
       </c>
       <c r="I9">
-        <v>2.638662773001003</v>
+        <v>2.683698135163611</v>
       </c>
       <c r="J9">
-        <v>8.646371975149563</v>
+        <v>8.878893023486475</v>
       </c>
       <c r="K9">
-        <v>14.22840571998648</v>
+        <v>13.74876929088521</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.62370655149261</v>
       </c>
       <c r="M9">
-        <v>12.37335962612389</v>
+        <v>8.760158589753127</v>
       </c>
       <c r="N9">
-        <v>7.221812091535846</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.36314084368973</v>
       </c>
       <c r="P9">
-        <v>12.08188901081962</v>
+        <v>7.284098315355225</v>
       </c>
       <c r="Q9">
-        <v>14.01880590471464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.04683761281959</v>
+      </c>
+      <c r="S9">
+        <v>13.65679221972115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.47632230145603</v>
+        <v>16.10296462694465</v>
       </c>
       <c r="C10">
-        <v>8.417320588360463</v>
+        <v>8.424306618914061</v>
       </c>
       <c r="D10">
-        <v>6.115738290237474</v>
+        <v>6.23710941148796</v>
       </c>
       <c r="E10">
-        <v>8.815707097424575</v>
+        <v>8.552876108856591</v>
       </c>
       <c r="F10">
-        <v>18.1677795799418</v>
+        <v>17.55844202694021</v>
       </c>
       <c r="G10">
-        <v>22.03886215918838</v>
+        <v>21.30500956608318</v>
       </c>
       <c r="I10">
-        <v>2.876967485697326</v>
+        <v>2.895707226713981</v>
       </c>
       <c r="J10">
-        <v>8.603668089898049</v>
+        <v>8.674410305975538</v>
       </c>
       <c r="K10">
-        <v>14.13775690599138</v>
+        <v>13.58643466929178</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.35703126212788</v>
       </c>
       <c r="M10">
-        <v>13.29838520597593</v>
+        <v>8.890044923767169</v>
       </c>
       <c r="N10">
-        <v>7.595673098381026</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.2649796540539</v>
       </c>
       <c r="P10">
-        <v>11.85234186362558</v>
+        <v>7.66330203061229</v>
       </c>
       <c r="Q10">
-        <v>14.08891460136947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.84792008666289</v>
+      </c>
+      <c r="S10">
+        <v>13.63690532197731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.02465927350191</v>
+        <v>16.59469872777558</v>
       </c>
       <c r="C11">
-        <v>8.509296153850295</v>
+        <v>8.536692870925508</v>
       </c>
       <c r="D11">
-        <v>6.270826348763602</v>
+        <v>6.430590732404752</v>
       </c>
       <c r="E11">
-        <v>8.921744730941777</v>
+        <v>8.662998920559387</v>
       </c>
       <c r="F11">
-        <v>18.39045453675528</v>
+        <v>17.62196340418095</v>
       </c>
       <c r="G11">
-        <v>22.27386793276047</v>
+        <v>22.49437776389655</v>
       </c>
       <c r="I11">
-        <v>2.988077292487309</v>
+        <v>2.993849218147636</v>
       </c>
       <c r="J11">
-        <v>8.581086009121877</v>
+        <v>8.309354193370917</v>
       </c>
       <c r="K11">
-        <v>14.08213059037759</v>
+        <v>13.4523990339745</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.19641879404292</v>
       </c>
       <c r="M11">
-        <v>13.69844310406544</v>
+        <v>8.910873321425223</v>
       </c>
       <c r="N11">
-        <v>7.76670661497724</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.62697970804396</v>
       </c>
       <c r="P11">
-        <v>11.75126725730915</v>
+        <v>7.832794956650164</v>
       </c>
       <c r="Q11">
-        <v>14.11125186717344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.76739272811306</v>
+      </c>
+      <c r="S11">
+        <v>13.54482611406317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.23729797345146</v>
+        <v>16.78384022044821</v>
       </c>
       <c r="C12">
-        <v>8.536841471548637</v>
+        <v>8.56691419682905</v>
       </c>
       <c r="D12">
-        <v>6.325909798166786</v>
+        <v>6.502572250518461</v>
       </c>
       <c r="E12">
-        <v>8.967747068056649</v>
+        <v>8.712203485165061</v>
       </c>
       <c r="F12">
-        <v>18.48879377809888</v>
+        <v>17.64761640484457</v>
       </c>
       <c r="G12">
-        <v>22.38772481970135</v>
+        <v>23.07075233029861</v>
       </c>
       <c r="I12">
-        <v>3.027056793250247</v>
+        <v>3.02673533952113</v>
       </c>
       <c r="J12">
-        <v>8.576909837656304</v>
+        <v>8.154931238090885</v>
       </c>
       <c r="K12">
-        <v>14.07316524374543</v>
+        <v>13.40703274383548</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.13999469703035</v>
       </c>
       <c r="M12">
-        <v>13.84681278482821</v>
+        <v>8.925007047285888</v>
       </c>
       <c r="N12">
-        <v>7.829530013555952</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.75781038928071</v>
       </c>
       <c r="P12">
-        <v>11.71276803084517</v>
+        <v>7.894520585188657</v>
       </c>
       <c r="Q12">
-        <v>14.13063295451041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.73730424419445</v>
+      </c>
+      <c r="S12">
+        <v>13.51114289251416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.19370203741203</v>
+        <v>16.74540330688454</v>
       </c>
       <c r="C13">
-        <v>8.529442026193172</v>
+        <v>8.558691048761546</v>
       </c>
       <c r="D13">
-        <v>6.313545360778853</v>
+        <v>6.486445806775054</v>
       </c>
       <c r="E13">
-        <v>8.958980592362675</v>
+        <v>8.702674300595422</v>
       </c>
       <c r="F13">
-        <v>18.47017764247638</v>
+        <v>17.64520046506818</v>
       </c>
       <c r="G13">
-        <v>22.3677298965223</v>
+        <v>22.94677856411428</v>
       </c>
       <c r="I13">
-        <v>3.018066884242234</v>
+        <v>3.018860502423264</v>
       </c>
       <c r="J13">
-        <v>8.57854289945422</v>
+        <v>8.189279814130202</v>
       </c>
       <c r="K13">
-        <v>14.07728692149285</v>
+        <v>13.41913658837603</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.15363425139099</v>
       </c>
       <c r="M13">
-        <v>13.81497397140552</v>
+        <v>8.923980205298225</v>
       </c>
       <c r="N13">
-        <v>7.815699832661037</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.72988210727333</v>
       </c>
       <c r="P13">
-        <v>11.72092631778471</v>
+        <v>7.880947140409816</v>
       </c>
       <c r="Q13">
-        <v>14.12833491842902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.74351929021203</v>
+      </c>
+      <c r="S13">
+        <v>13.52065327928504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.04310024058503</v>
+        <v>16.61125091411049</v>
       </c>
       <c r="C14">
-        <v>8.510938251862301</v>
+        <v>8.538450276997301</v>
       </c>
       <c r="D14">
-        <v>6.275144962915714</v>
+        <v>6.436244852730535</v>
       </c>
       <c r="E14">
-        <v>8.926015618486765</v>
+        <v>8.667500404486313</v>
       </c>
       <c r="F14">
-        <v>18.39963689707519</v>
+        <v>17.62541215752428</v>
       </c>
       <c r="G14">
-        <v>22.28516298557345</v>
+        <v>22.54175499701143</v>
       </c>
       <c r="I14">
-        <v>2.991022808649653</v>
+        <v>2.996208770953455</v>
       </c>
       <c r="J14">
-        <v>8.581053538273403</v>
+        <v>8.297173454067066</v>
       </c>
       <c r="K14">
-        <v>14.08232258946894</v>
+        <v>13.44966616088751</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.19241986980617</v>
       </c>
       <c r="M14">
-        <v>13.71070190746109</v>
+        <v>8.912893159051452</v>
       </c>
       <c r="N14">
-        <v>7.771747179167653</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.63785580442285</v>
       </c>
       <c r="P14">
-        <v>11.74804395751576</v>
+        <v>7.837754373192224</v>
       </c>
       <c r="Q14">
-        <v>14.11364299684019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.76480619720648</v>
+      </c>
+      <c r="S14">
+        <v>13.54302495786518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.94624095522652</v>
+        <v>16.52418353379158</v>
       </c>
       <c r="C15">
-        <v>8.50250340017859</v>
+        <v>8.529339618462387</v>
       </c>
       <c r="D15">
-        <v>6.252583494890295</v>
+        <v>6.406798643807162</v>
       </c>
       <c r="E15">
-        <v>8.90356524529173</v>
+        <v>8.643911571838055</v>
       </c>
       <c r="F15">
-        <v>18.35138156438617</v>
+        <v>17.6066344969925</v>
       </c>
       <c r="G15">
-        <v>22.22568240129439</v>
+        <v>22.29767976805123</v>
       </c>
       <c r="I15">
-        <v>2.975732837813139</v>
+        <v>2.984005858536214</v>
       </c>
       <c r="J15">
-        <v>8.581171134865247</v>
+        <v>8.360088662977718</v>
       </c>
       <c r="K15">
-        <v>14.08113589153127</v>
+        <v>13.46352839160598</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.21305951759135</v>
       </c>
       <c r="M15">
-        <v>13.64647711376941</v>
+        <v>8.902028484902234</v>
       </c>
       <c r="N15">
-        <v>7.745409070456806</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.58073693413143</v>
       </c>
       <c r="P15">
-        <v>11.76492119018086</v>
+        <v>7.811820461027676</v>
       </c>
       <c r="Q15">
-        <v>14.10099391499097</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.77839779202857</v>
+      </c>
+      <c r="S15">
+        <v>13.55190905014634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.4057395871147</v>
+        <v>16.0356748081098</v>
       </c>
       <c r="C16">
-        <v>8.43564086451441</v>
+        <v>8.447726513108252</v>
       </c>
       <c r="D16">
-        <v>6.114691079996346</v>
+        <v>6.234101487297312</v>
       </c>
       <c r="E16">
-        <v>8.789491472704809</v>
+        <v>8.526586343912337</v>
       </c>
       <c r="F16">
-        <v>18.10940082922929</v>
+        <v>17.50885921075097</v>
       </c>
       <c r="G16">
-        <v>21.94608669649326</v>
+        <v>21.1611929898817</v>
       </c>
       <c r="I16">
-        <v>2.879611573446041</v>
+        <v>2.902443116969176</v>
       </c>
       <c r="J16">
-        <v>8.592588493779459</v>
+        <v>8.683687124081599</v>
       </c>
       <c r="K16">
-        <v>14.1044108674611</v>
+        <v>13.55920999876824</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.34295520165248</v>
       </c>
       <c r="M16">
-        <v>13.27215245689051</v>
+        <v>8.857770127162963</v>
       </c>
       <c r="N16">
-        <v>7.589846510806384</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.24085856141047</v>
       </c>
       <c r="P16">
-        <v>11.86075540918749</v>
+        <v>7.657549984303351</v>
       </c>
       <c r="Q16">
-        <v>14.05535321240801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.85623492620978</v>
+      </c>
+      <c r="S16">
+        <v>13.61016339818066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.0649578341276</v>
+        <v>15.7230059921814</v>
       </c>
       <c r="C17">
-        <v>8.394497462797386</v>
+        <v>8.392033218334154</v>
       </c>
       <c r="D17">
-        <v>6.028505257274067</v>
+        <v>6.13083580876315</v>
       </c>
       <c r="E17">
-        <v>8.719746566436438</v>
+        <v>8.457616724646956</v>
       </c>
       <c r="F17">
-        <v>17.96270675541258</v>
+        <v>17.42924356976381</v>
       </c>
       <c r="G17">
-        <v>21.77777748147427</v>
+        <v>20.63833528084675</v>
       </c>
       <c r="I17">
-        <v>2.820265223110472</v>
+        <v>2.851541447736908</v>
       </c>
       <c r="J17">
-        <v>8.60067458329093</v>
+        <v>8.832622705875091</v>
       </c>
       <c r="K17">
-        <v>14.12055507412362</v>
+        <v>13.60938305121517</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.41743627885392</v>
       </c>
       <c r="M17">
-        <v>13.03714463091847</v>
+        <v>8.826617888296544</v>
       </c>
       <c r="N17">
-        <v>7.493867318225831</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.02137231754123</v>
       </c>
       <c r="P17">
-        <v>11.92007436921379</v>
+        <v>7.561500742231811</v>
       </c>
       <c r="Q17">
-        <v>14.0296841090057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.90597172779495</v>
+      </c>
+      <c r="S17">
+        <v>13.63206085824938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.87618094148444</v>
+        <v>15.54903163425891</v>
       </c>
       <c r="C18">
-        <v>8.363328701018274</v>
+        <v>8.348304975753704</v>
       </c>
       <c r="D18">
-        <v>5.97550749875751</v>
+        <v>6.06950654151554</v>
       </c>
       <c r="E18">
-        <v>8.685644844763271</v>
+        <v>8.424938159707565</v>
       </c>
       <c r="F18">
-        <v>17.89248306130789</v>
+        <v>17.38996458705318</v>
       </c>
       <c r="G18">
-        <v>21.70596964603289</v>
+        <v>20.42328313750625</v>
       </c>
       <c r="I18">
-        <v>2.781904426877515</v>
+        <v>2.816663556319916</v>
       </c>
       <c r="J18">
-        <v>8.609543609952933</v>
+        <v>8.900984014370698</v>
       </c>
       <c r="K18">
-        <v>14.14173195922495</v>
+        <v>13.64602653514976</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.46594337893092</v>
       </c>
       <c r="M18">
-        <v>12.89990016233515</v>
+        <v>8.816602767803049</v>
       </c>
       <c r="N18">
-        <v>7.436807614056612</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.8909608379567</v>
       </c>
       <c r="P18">
-        <v>11.95389365016564</v>
+        <v>7.50408038867858</v>
       </c>
       <c r="Q18">
-        <v>14.0255728907578</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.93445019139465</v>
+      </c>
+      <c r="S18">
+        <v>13.64948695735316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.80350176377093</v>
+        <v>15.48109663772328</v>
       </c>
       <c r="C19">
-        <v>8.3585096036078</v>
+        <v>8.340544724479074</v>
       </c>
       <c r="D19">
-        <v>5.959656218545818</v>
+        <v>6.051145703983148</v>
       </c>
       <c r="E19">
-        <v>8.669558178121081</v>
+        <v>8.409489054180407</v>
       </c>
       <c r="F19">
-        <v>17.85842957231398</v>
+        <v>17.36510226685619</v>
       </c>
       <c r="G19">
-        <v>21.66351838354308</v>
+        <v>20.34197673010871</v>
       </c>
       <c r="I19">
-        <v>2.771947829060103</v>
+        <v>2.808742217058517</v>
       </c>
       <c r="J19">
-        <v>8.609659822682385</v>
+        <v>8.917607870455207</v>
       </c>
       <c r="K19">
-        <v>14.14035926125361</v>
+        <v>13.64965311034827</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.47615606598421</v>
       </c>
       <c r="M19">
-        <v>12.8531750957191</v>
+        <v>8.806047793797934</v>
       </c>
       <c r="N19">
-        <v>7.418745479796396</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.84620776806391</v>
       </c>
       <c r="P19">
-        <v>11.96576166631972</v>
+        <v>7.485854809606616</v>
       </c>
       <c r="Q19">
-        <v>14.01675879705773</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.94481235895369</v>
+      </c>
+      <c r="S19">
+        <v>13.64712744234587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.10240955466197</v>
+        <v>15.75761251356388</v>
       </c>
       <c r="C20">
-        <v>8.398296463554452</v>
+        <v>8.397424894497481</v>
       </c>
       <c r="D20">
-        <v>6.037518370743262</v>
+        <v>6.141501135608006</v>
       </c>
       <c r="E20">
-        <v>8.72762314993461</v>
+        <v>8.46531001513039</v>
       </c>
       <c r="F20">
-        <v>17.97930742399468</v>
+        <v>17.43949826221737</v>
       </c>
       <c r="G20">
-        <v>21.79743020201311</v>
+        <v>20.68948538345581</v>
       </c>
       <c r="I20">
-        <v>2.826273223270263</v>
+        <v>2.85657674102885</v>
       </c>
       <c r="J20">
-        <v>8.600073626084564</v>
+        <v>8.819170400703644</v>
       </c>
       <c r="K20">
-        <v>14.11964723120256</v>
+        <v>13.60519349118448</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.41029834981608</v>
       </c>
       <c r="M20">
-        <v>13.06235729849714</v>
+        <v>8.830777491329297</v>
       </c>
       <c r="N20">
-        <v>7.503973813855748</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.04514569675236</v>
       </c>
       <c r="P20">
-        <v>11.91369903412143</v>
+        <v>7.571645654387813</v>
       </c>
       <c r="Q20">
-        <v>14.03309784657462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.90054240376277</v>
+      </c>
+      <c r="S20">
+        <v>13.63099229300306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.07636810143066</v>
+        <v>16.63226395201851</v>
       </c>
       <c r="C21">
-        <v>8.524634854987736</v>
+        <v>8.545899261965101</v>
       </c>
       <c r="D21">
-        <v>6.289493941586352</v>
+        <v>6.461705436843605</v>
       </c>
       <c r="E21">
-        <v>8.929267259484753</v>
+        <v>8.676016415835939</v>
       </c>
       <c r="F21">
-        <v>18.40570999228156</v>
+        <v>17.58147979487474</v>
       </c>
       <c r="G21">
-        <v>22.28351934944956</v>
+        <v>22.9131008313108</v>
       </c>
       <c r="I21">
-        <v>3.002709460231252</v>
+        <v>3.006713662704108</v>
       </c>
       <c r="J21">
-        <v>8.576035045744332</v>
+        <v>8.177160925985056</v>
       </c>
       <c r="K21">
-        <v>14.06828490380482</v>
+        <v>13.4130806169165</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.16291859629197</v>
       </c>
       <c r="M21">
-        <v>13.74152128092958</v>
+        <v>8.891495242557577</v>
       </c>
       <c r="N21">
-        <v>7.786443568899625</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.65527594685167</v>
       </c>
       <c r="P21">
-        <v>11.74073664141707</v>
+        <v>7.850890330278573</v>
       </c>
       <c r="Q21">
-        <v>14.10707514646924</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.76155188153391</v>
+      </c>
+      <c r="S21">
+        <v>13.50041177475229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.69705903613667</v>
+        <v>17.18822688714276</v>
       </c>
       <c r="C22">
-        <v>8.596323016049807</v>
+        <v>8.626877997791128</v>
       </c>
       <c r="D22">
-        <v>6.445033703070063</v>
+        <v>6.663230903806455</v>
       </c>
       <c r="E22">
-        <v>9.069840832062148</v>
+        <v>8.824468544381739</v>
       </c>
       <c r="F22">
-        <v>18.70844569422534</v>
+        <v>17.6844843395468</v>
       </c>
       <c r="G22">
-        <v>22.64435436174177</v>
+        <v>24.53119764122085</v>
       </c>
       <c r="I22">
-        <v>3.111888733959309</v>
+        <v>3.097722689665893</v>
       </c>
       <c r="J22">
-        <v>8.56937896940587</v>
+        <v>7.804440201504309</v>
       </c>
       <c r="K22">
-        <v>14.05692323339016</v>
+        <v>13.29893593079605</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.01201176350305</v>
       </c>
       <c r="M22">
-        <v>14.16762525873482</v>
+        <v>8.951302242051753</v>
       </c>
       <c r="N22">
-        <v>7.966809889048937</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.03456493031592</v>
       </c>
       <c r="P22">
-        <v>11.62855320543548</v>
+        <v>8.028454507885341</v>
       </c>
       <c r="Q22">
-        <v>14.17699035080985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.67352359778857</v>
+      </c>
+      <c r="S22">
+        <v>13.42275006289372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.38176639637006</v>
+        <v>16.91259025836191</v>
       </c>
       <c r="C23">
-        <v>8.548180036464604</v>
+        <v>8.577558937983323</v>
       </c>
       <c r="D23">
-        <v>6.358860505736849</v>
+        <v>6.547041604012767</v>
       </c>
       <c r="E23">
-        <v>9.002483879206595</v>
+        <v>8.74949497639634</v>
       </c>
       <c r="F23">
-        <v>18.56392735597333</v>
+        <v>17.67224012764315</v>
       </c>
       <c r="G23">
-        <v>22.48185499609192</v>
+        <v>23.49293688750568</v>
       </c>
       <c r="I23">
-        <v>3.049688938467008</v>
+        <v>3.044511450105545</v>
       </c>
       <c r="J23">
-        <v>8.577729077745621</v>
+        <v>8.054465249139135</v>
       </c>
       <c r="K23">
-        <v>14.07750527189915</v>
+        <v>13.3854412236098</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.10872203321135</v>
       </c>
       <c r="M23">
-        <v>13.94169157645232</v>
+        <v>8.94150012202199</v>
       </c>
       <c r="N23">
-        <v>7.868617814855098</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.84050002784903</v>
       </c>
       <c r="P23">
-        <v>11.68745416820914</v>
+        <v>7.932746986075177</v>
       </c>
       <c r="Q23">
-        <v>14.15200319339652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.7173230011553</v>
+      </c>
+      <c r="S23">
+        <v>13.4952407356495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.1077159654598</v>
+        <v>15.76428138319884</v>
       </c>
       <c r="C24">
-        <v>8.380891746360716</v>
+        <v>8.374793184332347</v>
       </c>
       <c r="D24">
-        <v>6.027467933932541</v>
+        <v>6.130569070232008</v>
       </c>
       <c r="E24">
-        <v>8.736524295020818</v>
+        <v>8.47430808248436</v>
       </c>
       <c r="F24">
-        <v>18.00020339558801</v>
+        <v>17.46326406845276</v>
       </c>
       <c r="G24">
-        <v>21.83869325238681</v>
+        <v>20.71756446289874</v>
       </c>
       <c r="I24">
-        <v>2.816039312104983</v>
+        <v>2.84448842681295</v>
       </c>
       <c r="J24">
-        <v>8.608445772335433</v>
+        <v>8.832799762442924</v>
       </c>
       <c r="K24">
-        <v>14.14382395686123</v>
+        <v>13.62980713598576</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.42943969012681</v>
       </c>
       <c r="M24">
-        <v>13.05074541842602</v>
+        <v>8.84824077262552</v>
       </c>
       <c r="N24">
-        <v>7.495898416885094</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.03414932198434</v>
       </c>
       <c r="P24">
-        <v>11.91550414370794</v>
+        <v>7.563525814480456</v>
       </c>
       <c r="Q24">
-        <v>14.05228805239567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.90126377207564</v>
+      </c>
+      <c r="S24">
+        <v>13.65189011054901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.60661171964214</v>
+        <v>14.34611911693749</v>
       </c>
       <c r="C25">
-        <v>8.197741298512289</v>
+        <v>8.078244707190976</v>
       </c>
       <c r="D25">
-        <v>5.647333235994998</v>
+        <v>5.716698506278886</v>
       </c>
       <c r="E25">
-        <v>8.454508722828049</v>
+        <v>8.218420961660081</v>
       </c>
       <c r="F25">
-        <v>17.41995253800889</v>
+        <v>16.98115824232154</v>
       </c>
       <c r="G25">
-        <v>21.19445968097237</v>
+        <v>20.00764081683283</v>
       </c>
       <c r="I25">
-        <v>2.555312108607456</v>
+        <v>2.612281111066722</v>
       </c>
       <c r="J25">
-        <v>8.656760767531365</v>
+        <v>8.927642360285803</v>
       </c>
       <c r="K25">
-        <v>14.24181859107868</v>
+        <v>13.78494809692713</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.70362774105006</v>
       </c>
       <c r="M25">
-        <v>12.01455512235456</v>
+        <v>8.708521908593488</v>
       </c>
       <c r="N25">
-        <v>7.086737491951212</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.01134106176732</v>
       </c>
       <c r="P25">
-        <v>12.16923846254167</v>
+        <v>7.14670132463078</v>
       </c>
       <c r="Q25">
-        <v>13.97783320807232</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.12428725018151</v>
+      </c>
+      <c r="S25">
+        <v>13.64309011397894</v>
       </c>
     </row>
   </sheetData>
